--- a/doc/Aufnahmen/Aufnahmebogen_Krater_3.xlsx
+++ b/doc/Aufnahmen/Aufnahmebogen_Krater_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\data\Aufnahmen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\Aufnahmen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20E3E6-2BEE-4FA4-A8D8-737C8403C96F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845697A4-0516-419F-964F-03AF28364944}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="18000" windowHeight="9360" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pürckhauer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Profil ID</t>
   </si>
@@ -63,9 +63,73 @@
 Schläge</t>
   </si>
   <si>
-    <t>Plot ID: 3
-N: 50.644099
-E: 8.676148
+    <t>Allgemeine Beschreibung des Kraters:
+- Baumstumpf im tiefsten Punkt
+- leichter Ringwall,
+- fast wannenförmig
+- keine Karrenspuren</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>schluffig</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Cv</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Cv (?)</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Gestein</t>
+  </si>
+  <si>
+    <t>bei 34 cm</t>
+  </si>
+  <si>
+    <t>Plot ID: 15
+N: 5632533
+E: 477198
 Datum: 18.09.19
 Aufgenommen durch:
 Schneider, Simon
@@ -73,89 +137,31 @@
 Kleinerer Krater von beiden, Hang, Buchen</t>
   </si>
   <si>
-    <t>Allgemeine Beschreibung des Kraters:
-- Baumstumpf im tiefsten Punkt
-- leichter Ringwall,
-- fast wannenförmig
-- keine Karrenspuren</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Ah</t>
-  </si>
-  <si>
-    <t>schluffig</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Cv</t>
-  </si>
-  <si>
-    <t>schluffig, grusig</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Cv (?)</t>
-  </si>
-  <si>
-    <t>leer</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>dunkel, schluffig grusig</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>schluffig, grusiger</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>schluffig, grusig, verdichtet</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>bei 39 cm Stein</t>
-  </si>
-  <si>
-    <t>Gestein</t>
-  </si>
-  <si>
-    <t>federt auf Stein</t>
-  </si>
-  <si>
-    <t>bei 34 cm</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>schluffig, 
+grusig</t>
+  </si>
+  <si>
+    <t>dunkel, 
+schluffig, grusig</t>
+  </si>
+  <si>
+    <t>schluffig,
+grusiger</t>
+  </si>
+  <si>
+    <t>schluffig, 
+grusig, verdichtet</t>
+  </si>
+  <si>
+    <t>bei 39 cm 
+Stein</t>
+  </si>
+  <si>
+    <t>federt auf 
+Stein</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -596,6 +602,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -625,7 +637,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>446833</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>190055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -964,8 +976,8 @@
   </sheetPr>
   <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -997,7 +1009,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
       <c r="G1" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
@@ -1688,7 +1700,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="10"/>
       <c r="F31" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1771,16 +1783,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="42"/>
@@ -1798,18 +1810,18 @@
       <c r="S36" s="42"/>
       <c r="T36" s="43"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="C37" s="2">
         <v>3.5</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>17</v>
+      <c r="D37" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="42"/>
@@ -1829,16 +1841,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2">
         <v>25.5</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="42"/>
@@ -1858,14 +1870,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="13"/>
       <c r="C39" s="2">
         <v>100</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="42"/>
@@ -1885,16 +1899,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="42"/>
@@ -1912,18 +1926,18 @@
       <c r="S40" s="42"/>
       <c r="T40" s="43"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>25</v>
+      <c r="D41" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="42"/>
@@ -1943,16 +1957,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
         <v>43</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
@@ -1970,18 +1984,18 @@
       <c r="S42" s="42"/>
       <c r="T42" s="43"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>28</v>
+      <c r="D43" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="F43" s="41"/>
       <c r="G43" s="42"/>
@@ -2001,16 +2015,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2">
         <v>8</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
@@ -2028,18 +2042,18 @@
       <c r="S44" s="42"/>
       <c r="T44" s="43"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
         <v>15</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>31</v>
+      <c r="D45" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="42"/>
@@ -2059,16 +2073,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
         <v>15</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="42"/>
@@ -2751,15 +2765,15 @@
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>40</v>
       </c>
       <c r="B74" s="13">
         <v>22</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>33</v>
+      <c r="C74" s="56" t="s">
+        <v>36</v>
       </c>
       <c r="D74" s="19">
         <v>40</v>
@@ -2783,7 +2797,7 @@
         <v>70</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O74" s="19">
         <v>40</v>
@@ -3013,7 +3027,7 @@
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>110</v>
       </c>
@@ -3032,8 +3046,8 @@
       <c r="I81" s="13">
         <v>15</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>35</v>
+      <c r="J81" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="K81" s="19">
         <v>110</v>
@@ -3064,7 +3078,7 @@
         <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H82" s="19">
         <v>120</v>
